--- a/static/BD_SEDES.xlsx
+++ b/static/BD_SEDES.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUALIZADAS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="RESULTADOS" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ACTUALIZADAS!$A$1:$T$683</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ACTUALIZADAS!$A$1:$T$709</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ACTUALIZADAS!$A$1:$T$683</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ACTUALIZADAS!$A$1:$T$683</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20005,7 +20006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U709"/>
@@ -20013,28 +20014,28 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="59" zoomScaleNormal="59" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A46" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="D725" activeCellId="0" sqref="D725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="3" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20099,7 +20100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>8687610</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>44</v>
       </c>
@@ -20273,7 +20274,7 @@
         <v>3134868634</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -20331,7 +20332,7 @@
         <v>2261172</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -20387,7 +20388,7 @@
         <v>8660077</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -20503,7 +20504,7 @@
         <v>3214399570</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
@@ -20559,7 +20560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>113</v>
       </c>
@@ -20617,7 +20618,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>124</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>3175038688</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>136</v>
       </c>
@@ -20733,7 +20734,7 @@
         <v>3146011126</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>144</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>3174377864</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>156</v>
       </c>
@@ -20849,7 +20850,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>170</v>
       </c>
@@ -20903,7 +20904,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
         <v>182</v>
       </c>
@@ -20959,7 +20960,7 @@
         <v>7315480</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>192</v>
       </c>
@@ -21015,7 +21016,7 @@
         <v>3002604827</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>202</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>211</v>
       </c>
@@ -21129,7 +21130,7 @@
         <v>3233639065</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>223</v>
       </c>
@@ -21187,7 +21188,7 @@
         <v>7593000</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>231</v>
       </c>
@@ -21245,7 +21246,7 @@
         <v>3021010</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>241</v>
       </c>
@@ -21301,7 +21302,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>253</v>
       </c>
@@ -21359,7 +21360,7 @@
         <v>5573055</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>267</v>
       </c>
@@ -21417,7 +21418,7 @@
         <v>3143917267</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
         <v>279</v>
       </c>
@@ -21471,7 +21472,7 @@
       </c>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>290</v>
       </c>
@@ -21525,7 +21526,7 @@
         <v>8571325</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>298</v>
       </c>
@@ -21581,7 +21582,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>307</v>
       </c>
@@ -21639,7 +21640,7 @@
         <v>3142984596</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>318</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>330</v>
       </c>
@@ -21757,7 +21758,7 @@
         <v>3008758385</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>343</v>
       </c>
@@ -21811,7 +21812,7 @@
       </c>
       <c r="T31" s="12"/>
     </row>
-    <row r="32" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>354</v>
       </c>
@@ -21869,7 +21870,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>364</v>
       </c>
@@ -21927,7 +21928,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>377</v>
       </c>
@@ -21985,7 +21986,7 @@
         <v>3167842247</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>389</v>
       </c>
@@ -22041,7 +22042,7 @@
         <v>3046574823</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>400</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>413</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>423</v>
       </c>
@@ -22217,7 +22218,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>432</v>
       </c>
@@ -22275,7 +22276,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>441</v>
       </c>
@@ -22327,7 +22328,7 @@
       </c>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>450</v>
       </c>
@@ -22385,7 +22386,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
         <v>460</v>
       </c>
@@ -22441,7 +22442,7 @@
         <v>3204312600</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
         <v>470</v>
       </c>
@@ -22497,7 +22498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>479</v>
       </c>
@@ -22553,7 +22554,7 @@
         <v>3197644274</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
         <v>488</v>
       </c>
@@ -22605,7 +22606,7 @@
       </c>
       <c r="T45" s="12"/>
     </row>
-    <row r="46" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
         <v>488</v>
       </c>
@@ -22659,7 +22660,7 @@
       </c>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>497</v>
       </c>
@@ -22715,7 +22716,7 @@
         <v>3147142327</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>508</v>
       </c>
@@ -22777,7 +22778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>517</v>
       </c>
@@ -22835,7 +22836,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>526</v>
       </c>
@@ -22891,7 +22892,7 @@
         <v>3213725301</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>535</v>
       </c>
@@ -22949,7 +22950,7 @@
         <v>3016389899</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
         <v>546</v>
       </c>
@@ -23003,7 +23004,7 @@
       </c>
       <c r="T52" s="12"/>
     </row>
-    <row r="53" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
         <v>556</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>3114563121</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>564</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>573</v>
       </c>
@@ -23175,7 +23176,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>586</v>
       </c>
@@ -23231,7 +23232,7 @@
         <v>3202815389</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>594</v>
       </c>
@@ -23289,7 +23290,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>606</v>
       </c>
@@ -23347,7 +23348,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>618</v>
       </c>
@@ -23405,7 +23406,7 @@
         <v>3208779629</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>629</v>
       </c>
@@ -23465,7 +23466,7 @@
         <v>3022836569</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>642</v>
       </c>
@@ -23521,7 +23522,7 @@
         <v>3008031430</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>653</v>
       </c>
@@ -23579,7 +23580,7 @@
         <v>3005466903</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>665</v>
       </c>
@@ -23637,7 +23638,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>679</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>3105251386</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>690</v>
       </c>
@@ -23753,7 +23754,7 @@
         <v>321566383</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>701</v>
       </c>
@@ -23813,7 +23814,7 @@
         <v>3106504766</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>713</v>
       </c>
@@ -23873,7 +23874,7 @@
         <v>3145472177</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>725</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>3053375810</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>737</v>
       </c>
@@ -23995,7 +23996,7 @@
         <v>314560689</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>747</v>
       </c>
@@ -24053,7 +24054,7 @@
         <v>3017710672</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>760</v>
       </c>
@@ -24109,7 +24110,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>769</v>
       </c>
@@ -24167,7 +24168,7 @@
         <v>3145682559</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>779</v>
       </c>
@@ -24225,7 +24226,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>794</v>
       </c>
@@ -24283,7 +24284,7 @@
         <v>3156320459</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>806</v>
       </c>
@@ -24341,7 +24342,7 @@
         <v>3133353312</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>816</v>
       </c>
@@ -24399,7 +24400,7 @@
         <v>3204911044</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>827</v>
       </c>
@@ -24455,7 +24456,7 @@
         <v>3152177627</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>838</v>
       </c>
@@ -24513,7 +24514,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>848</v>
       </c>
@@ -24565,7 +24566,7 @@
       </c>
       <c r="T79" s="12"/>
     </row>
-    <row r="80" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
         <v>848</v>
       </c>
@@ -24621,7 +24622,7 @@
         <v>3208024029</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>862</v>
       </c>
@@ -24679,7 +24680,7 @@
         <v>3127374713</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="2" customFormat="true" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>873</v>
       </c>
@@ -24737,7 +24738,7 @@
         <v>3214401091</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>885</v>
       </c>
@@ -24795,7 +24796,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>898</v>
       </c>
@@ -24853,7 +24854,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>910</v>
       </c>
@@ -24911,7 +24912,7 @@
         <v>7642841</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>919</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>3105909906</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
         <v>931</v>
       </c>
@@ -25025,7 +25026,7 @@
       </c>
       <c r="T87" s="12"/>
     </row>
-    <row r="88" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
         <v>939</v>
       </c>
@@ -25079,7 +25080,7 @@
       </c>
       <c r="T88" s="12"/>
     </row>
-    <row r="89" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
         <v>939</v>
       </c>
@@ -25133,7 +25134,7 @@
       </c>
       <c r="T89" s="12"/>
     </row>
-    <row r="90" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
         <v>939</v>
       </c>
@@ -25187,7 +25188,7 @@
       </c>
       <c r="T90" s="12"/>
     </row>
-    <row r="91" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>956</v>
       </c>
@@ -25243,7 +25244,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
         <v>969</v>
       </c>
@@ -25297,7 +25298,7 @@
       </c>
       <c r="T92" s="12"/>
     </row>
-    <row r="93" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>979</v>
       </c>
@@ -25355,7 +25356,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>990</v>
       </c>
@@ -25415,7 +25416,7 @@
         <v>8488002</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>1001</v>
       </c>
@@ -25473,7 +25474,7 @@
         <v>3133849869</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>1011</v>
       </c>
@@ -25531,7 +25532,7 @@
         <v>3133970996</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>1021</v>
       </c>
@@ -25591,7 +25592,7 @@
         <v>3142824429</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>1032</v>
       </c>
@@ -25649,7 +25650,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
         <v>1042</v>
       </c>
@@ -25707,7 +25708,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
         <v>1051</v>
       </c>
@@ -25761,7 +25762,7 @@
       </c>
       <c r="T100" s="12"/>
     </row>
-    <row r="101" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="s">
         <v>1051</v>
       </c>
@@ -25815,7 +25816,7 @@
       </c>
       <c r="T101" s="12"/>
     </row>
-    <row r="102" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>1064</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="s">
         <v>1073</v>
       </c>
@@ -25925,7 +25926,7 @@
       </c>
       <c r="T103" s="12"/>
     </row>
-    <row r="104" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>1084</v>
       </c>
@@ -25983,7 +25984,7 @@
         <v>3023386551</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="s">
         <v>1096</v>
       </c>
@@ -26035,7 +26036,7 @@
       </c>
       <c r="T105" s="12"/>
     </row>
-    <row r="106" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
         <v>1104</v>
       </c>
@@ -26089,7 +26090,7 @@
       </c>
       <c r="T106" s="12"/>
     </row>
-    <row r="107" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="s">
         <v>1104</v>
       </c>
@@ -26145,7 +26146,7 @@
         <v>3116733</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="s">
         <v>1123</v>
       </c>
@@ -26199,7 +26200,7 @@
       </c>
       <c r="T108" s="12"/>
     </row>
-    <row r="109" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="s">
         <v>1133</v>
       </c>
@@ -26251,7 +26252,7 @@
       </c>
       <c r="T109" s="12"/>
     </row>
-    <row r="110" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="s">
         <v>1145</v>
       </c>
@@ -26307,7 +26308,7 @@
         <v>8240343</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>1153</v>
       </c>
@@ -26365,7 +26366,7 @@
         <v>6710203</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>1164</v>
       </c>
@@ -26423,7 +26424,7 @@
         <v>4257024</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>1175</v>
       </c>
@@ -26481,7 +26482,7 @@
         <v>3126910387</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>1184</v>
       </c>
@@ -26539,7 +26540,7 @@
         <v>3234587903</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>1197</v>
       </c>
@@ -26597,7 +26598,7 @@
         <v>3154972761</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>1206</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>3004679906</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>1213</v>
       </c>
@@ -26713,7 +26714,7 @@
         <v>3008803037</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>1223</v>
       </c>
@@ -26773,7 +26774,7 @@
         <v>3016910473</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="s">
         <v>1235</v>
       </c>
@@ -26827,7 +26828,7 @@
       </c>
       <c r="T119" s="12"/>
     </row>
-    <row r="120" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="s">
         <v>1235</v>
       </c>
@@ -26881,7 +26882,7 @@
       </c>
       <c r="T120" s="12"/>
     </row>
-    <row r="121" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>1251</v>
       </c>
@@ -26939,7 +26940,7 @@
         <v>3107182663</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>1263</v>
       </c>
@@ -26997,7 +26998,7 @@
         <v>3144508612</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="s">
         <v>1272</v>
       </c>
@@ -27051,7 +27052,7 @@
       </c>
       <c r="T123" s="12"/>
     </row>
-    <row r="124" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="s">
         <v>1280</v>
       </c>
@@ -27105,7 +27106,7 @@
       </c>
       <c r="T124" s="12"/>
     </row>
-    <row r="125" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>1291</v>
       </c>
@@ -27163,7 +27164,7 @@
         <v>3192023648</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="s">
         <v>1302</v>
       </c>
@@ -27217,7 +27218,7 @@
       </c>
       <c r="T126" s="12"/>
     </row>
-    <row r="127" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="s">
         <v>1310</v>
       </c>
@@ -27269,7 +27270,7 @@
       </c>
       <c r="T127" s="12"/>
     </row>
-    <row r="128" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="s">
         <v>1318</v>
       </c>
@@ -27323,7 +27324,7 @@
       </c>
       <c r="T128" s="12"/>
     </row>
-    <row r="129" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="s">
         <v>1326</v>
       </c>
@@ -27377,7 +27378,7 @@
       </c>
       <c r="T129" s="12"/>
     </row>
-    <row r="130" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="s">
         <v>1333</v>
       </c>
@@ -27431,7 +27432,7 @@
       </c>
       <c r="T130" s="12"/>
     </row>
-    <row r="131" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="s">
         <v>1342</v>
       </c>
@@ -27485,7 +27486,7 @@
       </c>
       <c r="T131" s="12"/>
     </row>
-    <row r="132" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="s">
         <v>1349</v>
       </c>
@@ -27539,7 +27540,7 @@
       </c>
       <c r="T132" s="12"/>
     </row>
-    <row r="133" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="s">
         <v>1359</v>
       </c>
@@ -27593,7 +27594,7 @@
       </c>
       <c r="T133" s="12"/>
     </row>
-    <row r="134" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="s">
         <v>1368</v>
       </c>
@@ -27645,7 +27646,7 @@
       </c>
       <c r="T134" s="12"/>
     </row>
-    <row r="135" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="11" t="s">
         <v>1376</v>
       </c>
@@ -27699,7 +27700,7 @@
       </c>
       <c r="T135" s="12"/>
     </row>
-    <row r="136" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
         <v>1383</v>
       </c>
@@ -27753,7 +27754,7 @@
       </c>
       <c r="T136" s="12"/>
     </row>
-    <row r="137" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
         <v>1389</v>
       </c>
@@ -27807,7 +27808,7 @@
       </c>
       <c r="T137" s="12"/>
     </row>
-    <row r="138" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
         <v>1396</v>
       </c>
@@ -27859,7 +27860,7 @@
       </c>
       <c r="T138" s="12"/>
     </row>
-    <row r="139" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="11" t="s">
         <v>1404</v>
       </c>
@@ -27913,7 +27914,7 @@
       </c>
       <c r="T139" s="12"/>
     </row>
-    <row r="140" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11" t="s">
         <v>1413</v>
       </c>
@@ -27967,7 +27968,7 @@
       </c>
       <c r="T140" s="12"/>
     </row>
-    <row r="141" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="11" t="s">
         <v>1420</v>
       </c>
@@ -28021,7 +28022,7 @@
       </c>
       <c r="T141" s="12"/>
     </row>
-    <row r="142" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>1430</v>
       </c>
@@ -28079,7 +28080,7 @@
         <v>3102018925</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="11" t="s">
         <v>1440</v>
       </c>
@@ -28131,7 +28132,7 @@
       </c>
       <c r="T143" s="12"/>
     </row>
-    <row r="144" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11" t="s">
         <v>1447</v>
       </c>
@@ -28185,7 +28186,7 @@
       </c>
       <c r="T144" s="12"/>
     </row>
-    <row r="145" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="11" t="s">
         <v>1454</v>
       </c>
@@ -28239,7 +28240,7 @@
       </c>
       <c r="T145" s="12"/>
     </row>
-    <row r="146" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="11" t="s">
         <v>1464</v>
       </c>
@@ -28293,7 +28294,7 @@
       </c>
       <c r="T146" s="12"/>
     </row>
-    <row r="147" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="11" t="s">
         <v>1473</v>
       </c>
@@ -28347,7 +28348,7 @@
       </c>
       <c r="T147" s="12"/>
     </row>
-    <row r="148" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11" t="s">
         <v>1482</v>
       </c>
@@ -28399,7 +28400,7 @@
       </c>
       <c r="T148" s="12"/>
     </row>
-    <row r="149" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>1489</v>
       </c>
@@ -28457,7 +28458,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>1502</v>
       </c>
@@ -28513,7 +28514,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>1513</v>
       </c>
@@ -28571,7 +28572,7 @@
         <v>3178814647</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>1524</v>
       </c>
@@ -28631,7 +28632,7 @@
         <v>2857738</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="11" t="s">
         <v>1534</v>
       </c>
@@ -28685,7 +28686,7 @@
       </c>
       <c r="T153" s="12"/>
     </row>
-    <row r="154" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="11" t="s">
         <v>1545</v>
       </c>
@@ -28741,7 +28742,7 @@
         <v>2840563</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>1553</v>
       </c>
@@ -28799,7 +28800,7 @@
         <v>5770923</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>1562</v>
       </c>
@@ -28857,7 +28858,7 @@
         <v>3183436650</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>1571</v>
       </c>
@@ -28913,7 +28914,7 @@
         <v>3176861776</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>1581</v>
       </c>
@@ -28975,7 +28976,7 @@
         <v>3175182081</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>1591</v>
       </c>
@@ -29033,7 +29034,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="160" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>1602</v>
       </c>
@@ -29091,7 +29092,7 @@
         <v>3107296698</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>1614</v>
       </c>
@@ -29149,7 +29150,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>1624</v>
       </c>
@@ -29207,7 +29208,7 @@
         <v>3014098671</v>
       </c>
     </row>
-    <row r="163" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>1635</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>3004599587</v>
       </c>
     </row>
-    <row r="164" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11" t="s">
         <v>1647</v>
       </c>
@@ -29317,7 +29318,7 @@
       </c>
       <c r="T164" s="12"/>
     </row>
-    <row r="165" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="11" t="s">
         <v>1657</v>
       </c>
@@ -29371,7 +29372,7 @@
       </c>
       <c r="T165" s="12"/>
     </row>
-    <row r="166" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11" t="s">
         <v>1666</v>
       </c>
@@ -29425,7 +29426,7 @@
       </c>
       <c r="T166" s="12"/>
     </row>
-    <row r="167" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>1675</v>
       </c>
@@ -29483,7 +29484,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="168" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11" t="s">
         <v>1685</v>
       </c>
@@ -29537,7 +29538,7 @@
       </c>
       <c r="T168" s="12"/>
     </row>
-    <row r="169" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="11" t="s">
         <v>1691</v>
       </c>
@@ -29591,7 +29592,7 @@
       </c>
       <c r="T169" s="12"/>
     </row>
-    <row r="170" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="11" t="s">
         <v>1691</v>
       </c>
@@ -29645,7 +29646,7 @@
       </c>
       <c r="T170" s="12"/>
     </row>
-    <row r="171" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="11" t="s">
         <v>1702</v>
       </c>
@@ -29699,7 +29700,7 @@
       </c>
       <c r="T171" s="12"/>
     </row>
-    <row r="172" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="11" t="s">
         <v>1713</v>
       </c>
@@ -29753,7 +29754,7 @@
       </c>
       <c r="T172" s="12"/>
     </row>
-    <row r="173" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="11" t="s">
         <v>1724</v>
       </c>
@@ -29807,7 +29808,7 @@
       </c>
       <c r="T173" s="12"/>
     </row>
-    <row r="174" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>1733</v>
       </c>
@@ -29865,7 +29866,7 @@
         <v>31120264441</v>
       </c>
     </row>
-    <row r="175" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="11" t="s">
         <v>1743</v>
       </c>
@@ -29919,7 +29920,7 @@
       </c>
       <c r="T175" s="12"/>
     </row>
-    <row r="176" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11" t="s">
         <v>1753</v>
       </c>
@@ -29973,7 +29974,7 @@
       </c>
       <c r="T176" s="12"/>
     </row>
-    <row r="177" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="11" t="s">
         <v>1762</v>
       </c>
@@ -30027,7 +30028,7 @@
       </c>
       <c r="T177" s="12"/>
     </row>
-    <row r="178" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>1769</v>
       </c>
@@ -30085,7 +30086,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="179" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>1778</v>
       </c>
@@ -30143,7 +30144,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>1793</v>
       </c>
@@ -30201,7 +30202,7 @@
         <v>3155552293</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="11" t="s">
         <v>1805</v>
       </c>
@@ -30255,7 +30256,7 @@
       </c>
       <c r="T181" s="12"/>
     </row>
-    <row r="182" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11" t="s">
         <v>1814</v>
       </c>
@@ -30309,7 +30310,7 @@
       </c>
       <c r="T182" s="12"/>
     </row>
-    <row r="183" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>1822</v>
       </c>
@@ -30365,7 +30366,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="184" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" s="2" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="11" t="s">
         <v>1833</v>
       </c>
@@ -30419,7 +30420,7 @@
       </c>
       <c r="T184" s="12"/>
     </row>
-    <row r="185" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>1844</v>
       </c>
@@ -30477,7 +30478,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="186" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11" t="s">
         <v>1856</v>
       </c>
@@ -30531,7 +30532,7 @@
       </c>
       <c r="T186" s="12"/>
     </row>
-    <row r="187" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="11" t="s">
         <v>1864</v>
       </c>
@@ -30583,7 +30584,7 @@
       </c>
       <c r="T187" s="12"/>
     </row>
-    <row r="188" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>1874</v>
       </c>
@@ -30641,7 +30642,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>1888</v>
       </c>
@@ -30703,7 +30704,7 @@
         <v>3144226908</v>
       </c>
     </row>
-    <row r="190" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>1902</v>
       </c>
@@ -30759,7 +30760,7 @@
         <v>3125366707</v>
       </c>
     </row>
-    <row r="191" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>1913</v>
       </c>
@@ -30817,7 +30818,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>1925</v>
       </c>
@@ -30875,7 +30876,7 @@
         <v>3166081118</v>
       </c>
     </row>
-    <row r="193" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>1934</v>
       </c>
@@ -30933,7 +30934,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>1945</v>
       </c>
@@ -30991,7 +30992,7 @@
         <v>3043513566</v>
       </c>
     </row>
-    <row r="195" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>1957</v>
       </c>
@@ -31051,7 +31052,7 @@
         <v>3013842272</v>
       </c>
     </row>
-    <row r="196" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="s">
         <v>1969</v>
       </c>
@@ -31107,7 +31108,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="197" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>1979</v>
       </c>
@@ -31165,7 +31166,7 @@
         <v>7436722</v>
       </c>
     </row>
-    <row r="198" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>1991</v>
       </c>
@@ -31221,7 +31222,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="199" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>2002</v>
       </c>
@@ -31279,7 +31280,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="200" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>2014</v>
       </c>
@@ -31335,7 +31336,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>2025</v>
       </c>
@@ -31393,7 +31394,7 @@
         <v>3217810135</v>
       </c>
     </row>
-    <row r="202" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>2037</v>
       </c>
@@ -31451,7 +31452,7 @@
         <v>7544023</v>
       </c>
     </row>
-    <row r="203" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>2045</v>
       </c>
@@ -31509,7 +31510,7 @@
         <v>8787602</v>
       </c>
     </row>
-    <row r="204" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>2055</v>
       </c>
@@ -31567,7 +31568,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="205" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>2068</v>
       </c>
@@ -31623,7 +31624,7 @@
         <v>6348809</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>2078</v>
       </c>
@@ -31681,7 +31682,7 @@
         <v>6481866</v>
       </c>
     </row>
-    <row r="207" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>2089</v>
       </c>
@@ -31739,7 +31740,7 @@
         <v>6624231</v>
       </c>
     </row>
-    <row r="208" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>2097</v>
       </c>
@@ -31797,7 +31798,7 @@
         <v>7580013</v>
       </c>
     </row>
-    <row r="209" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>2105</v>
       </c>
@@ -31853,7 +31854,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="210" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>2117</v>
       </c>
@@ -31911,7 +31912,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="11" t="s">
         <v>2127</v>
       </c>
@@ -31965,7 +31966,7 @@
       </c>
       <c r="T211" s="12"/>
     </row>
-    <row r="212" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="11" t="s">
         <v>2127</v>
       </c>
@@ -32019,7 +32020,7 @@
         <v>6188167</v>
       </c>
     </row>
-    <row r="213" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>2140</v>
       </c>
@@ -32077,7 +32078,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="214" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="11" t="s">
         <v>2148</v>
       </c>
@@ -32131,7 +32132,7 @@
       </c>
       <c r="T214" s="12"/>
     </row>
-    <row r="215" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>2156</v>
       </c>
@@ -32189,7 +32190,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="216" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>2166</v>
       </c>
@@ -32247,7 +32248,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="217" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>2179</v>
       </c>
@@ -32305,7 +32306,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="218" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>2187</v>
       </c>
@@ -32363,7 +32364,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>2195</v>
       </c>
@@ -32421,7 +32422,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="220" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>2207</v>
       </c>
@@ -32479,7 +32480,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="221" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>2218</v>
       </c>
@@ -32537,7 +32538,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="222" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>2230</v>
       </c>
@@ -32595,7 +32596,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>2240</v>
       </c>
@@ -32653,7 +32654,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="224" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>2254</v>
       </c>
@@ -32711,7 +32712,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="225" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>2262</v>
       </c>
@@ -32769,7 +32770,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="226" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>2274</v>
       </c>
@@ -32827,7 +32828,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="227" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>2287</v>
       </c>
@@ -32881,7 +32882,7 @@
       </c>
       <c r="T227" s="9"/>
     </row>
-    <row r="228" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>2298</v>
       </c>
@@ -32939,7 +32940,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="229" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>2309</v>
       </c>
@@ -32997,7 +32998,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="230" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>2320</v>
       </c>
@@ -33055,7 +33056,7 @@
         <v>3134378830</v>
       </c>
     </row>
-    <row r="231" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>2331</v>
       </c>
@@ -33113,7 +33114,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="232" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>2342</v>
       </c>
@@ -33171,7 +33172,7 @@
         <v>2539036</v>
       </c>
     </row>
-    <row r="233" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>2350</v>
       </c>
@@ -33229,7 +33230,7 @@
         <v>3122580238</v>
       </c>
     </row>
-    <row r="234" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>2361</v>
       </c>
@@ -33287,7 +33288,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="235" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>2375</v>
       </c>
@@ -33343,7 +33344,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="236" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
         <v>2385</v>
       </c>
@@ -33401,7 +33402,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="237" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
         <v>2395</v>
       </c>
@@ -33459,7 +33460,7 @@
         <v>3163794015</v>
       </c>
     </row>
-    <row r="238" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>2408</v>
       </c>
@@ -33519,7 +33520,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="239" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>2421</v>
       </c>
@@ -33577,7 +33578,7 @@
         <v>3229117500</v>
       </c>
     </row>
-    <row r="240" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>2432</v>
       </c>
@@ -33637,7 +33638,7 @@
         <v>3212176905</v>
       </c>
     </row>
-    <row r="241" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>2445</v>
       </c>
@@ -33695,7 +33696,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>2456</v>
       </c>
@@ -33753,7 +33754,7 @@
         <v>3146858736</v>
       </c>
     </row>
-    <row r="243" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>2468</v>
       </c>
@@ -33811,7 +33812,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="244" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="11" t="s">
         <v>2481</v>
       </c>
@@ -33865,7 +33866,7 @@
       </c>
       <c r="T244" s="12"/>
     </row>
-    <row r="245" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>2490</v>
       </c>
@@ -33921,7 +33922,7 @@
         <v>3136609608</v>
       </c>
     </row>
-    <row r="246" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>2500</v>
       </c>
@@ -33979,7 +33980,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="247" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>2510</v>
       </c>
@@ -34037,7 +34038,7 @@
         <v>8550014</v>
       </c>
     </row>
-    <row r="248" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>2520</v>
       </c>
@@ -34093,7 +34094,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="249" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>2531</v>
       </c>
@@ -34151,7 +34152,7 @@
         <v>8770011</v>
       </c>
     </row>
-    <row r="250" s="2" customFormat="true" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" s="2" customFormat="true" ht="75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>2542</v>
       </c>
@@ -34209,7 +34210,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="251" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>2554</v>
       </c>
@@ -34267,7 +34268,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="252" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>2567</v>
       </c>
@@ -34325,7 +34326,7 @@
         <v>3104309585</v>
       </c>
     </row>
-    <row r="253" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="11" t="s">
         <v>2576</v>
       </c>
@@ -34379,7 +34380,7 @@
       </c>
       <c r="T253" s="12"/>
     </row>
-    <row r="254" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>2587</v>
       </c>
@@ -34437,7 +34438,7 @@
         <v>3217825042</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>2598</v>
       </c>
@@ -34495,7 +34496,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="256" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>2610</v>
       </c>
@@ -34553,7 +34554,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="257" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>2622</v>
       </c>
@@ -34613,7 +34614,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>2635</v>
       </c>
@@ -34671,7 +34672,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>2646</v>
       </c>
@@ -34729,7 +34730,7 @@
         <v>4061341</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>2654</v>
       </c>
@@ -34787,7 +34788,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>2664</v>
       </c>
@@ -34845,7 +34846,7 @@
         <v>3116419415</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>2674</v>
       </c>
@@ -34903,7 +34904,7 @@
         <v>3206749217</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>2685</v>
       </c>
@@ -34961,7 +34962,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>2698</v>
       </c>
@@ -35019,7 +35020,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="11" t="s">
         <v>2710</v>
       </c>
@@ -35071,7 +35072,7 @@
         <v>3117270629</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>2719</v>
       </c>
@@ -35129,7 +35130,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>2728</v>
       </c>
@@ -35187,7 +35188,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>2741</v>
       </c>
@@ -35245,7 +35246,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="269" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="11" t="s">
         <v>2754</v>
       </c>
@@ -35299,7 +35300,7 @@
       </c>
       <c r="T269" s="12"/>
     </row>
-    <row r="270" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>2765</v>
       </c>
@@ -35357,7 +35358,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="271" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>2776</v>
       </c>
@@ -35413,7 +35414,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>2786</v>
       </c>
@@ -35471,7 +35472,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="273" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
         <v>2798</v>
       </c>
@@ -35529,7 +35530,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="274" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6" t="s">
         <v>2809</v>
       </c>
@@ -35587,7 +35588,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="275" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>2821</v>
       </c>
@@ -35645,7 +35646,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="276" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>2831</v>
       </c>
@@ -35703,7 +35704,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="277" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>2844</v>
       </c>
@@ -35763,7 +35764,7 @@
         <v>5484044</v>
       </c>
     </row>
-    <row r="278" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>2856</v>
       </c>
@@ -35821,7 +35822,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="279" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>2868</v>
       </c>
@@ -35879,7 +35880,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="280" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>2879</v>
       </c>
@@ -35937,7 +35938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="281" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>2887</v>
       </c>
@@ -35995,7 +35996,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="282" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>2898</v>
       </c>
@@ -36053,7 +36054,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="283" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>2910</v>
       </c>
@@ -36109,7 +36110,7 @@
       </c>
       <c r="T283" s="9"/>
     </row>
-    <row r="284" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>2920</v>
       </c>
@@ -36165,7 +36166,7 @@
         <v>8549897</v>
       </c>
     </row>
-    <row r="285" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>2927</v>
       </c>
@@ -36223,7 +36224,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="286" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>2934</v>
       </c>
@@ -36281,7 +36282,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="287" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>2947</v>
       </c>
@@ -36339,7 +36340,7 @@
         <v>3007537892</v>
       </c>
     </row>
-    <row r="288" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>2959</v>
       </c>
@@ -36395,7 +36396,7 @@
         <v>8498080</v>
       </c>
     </row>
-    <row r="289" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>2969</v>
       </c>
@@ -36453,7 +36454,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="290" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>2982</v>
       </c>
@@ -36511,7 +36512,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="291" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>2992</v>
       </c>
@@ -36569,7 +36570,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="292" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>3001</v>
       </c>
@@ -36627,7 +36628,7 @@
         <v>3136857881</v>
       </c>
     </row>
-    <row r="293" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>3012</v>
       </c>
@@ -36685,7 +36686,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="294" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
         <v>3025</v>
       </c>
@@ -36743,7 +36744,7 @@
         <v>8610800</v>
       </c>
     </row>
-    <row r="295" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
         <v>3037</v>
       </c>
@@ -36801,7 +36802,7 @@
         <v>3137356918</v>
       </c>
     </row>
-    <row r="296" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>3050</v>
       </c>
@@ -36859,7 +36860,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>3062</v>
       </c>
@@ -36915,7 +36916,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="298" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>3072</v>
       </c>
@@ -36969,7 +36970,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="299" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>3083</v>
       </c>
@@ -37027,7 +37028,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="300" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>3096</v>
       </c>
@@ -37085,7 +37086,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="301" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>3109</v>
       </c>
@@ -37143,7 +37144,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>3119</v>
       </c>
@@ -37203,7 +37204,7 @@
         <v>8559264</v>
       </c>
     </row>
-    <row r="303" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>3130</v>
       </c>
@@ -37261,7 +37262,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="304" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>3140</v>
       </c>
@@ -37319,7 +37320,7 @@
         <v>3127951419</v>
       </c>
     </row>
-    <row r="305" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="11" t="s">
         <v>3151</v>
       </c>
@@ -37371,7 +37372,7 @@
       </c>
       <c r="T305" s="12"/>
     </row>
-    <row r="306" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>3162</v>
       </c>
@@ -37429,7 +37430,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="307" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>3176</v>
       </c>
@@ -37487,7 +37488,7 @@
         <v>3125609497</v>
       </c>
     </row>
-    <row r="308" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>3186</v>
       </c>
@@ -37545,7 +37546,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="309" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>3196</v>
       </c>
@@ -37603,7 +37604,7 @@
         <v>8527035</v>
       </c>
     </row>
-    <row r="310" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>3205</v>
       </c>
@@ -37661,7 +37662,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="311" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>3213</v>
       </c>
@@ -37715,7 +37716,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="312" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>3223</v>
       </c>
@@ -37773,7 +37774,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="313" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>3233</v>
       </c>
@@ -37831,7 +37832,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="314" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>3245</v>
       </c>
@@ -37889,7 +37890,7 @@
         <v>3127768583</v>
       </c>
     </row>
-    <row r="315" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>3257</v>
       </c>
@@ -37949,7 +37950,7 @@
         <v>3135760661</v>
       </c>
     </row>
-    <row r="316" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>3270</v>
       </c>
@@ -38007,7 +38008,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="317" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>3281</v>
       </c>
@@ -38065,7 +38066,7 @@
         <v>8394547</v>
       </c>
     </row>
-    <row r="318" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>3291</v>
       </c>
@@ -38121,7 +38122,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="319" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>3299</v>
       </c>
@@ -38177,7 +38178,7 @@
         <v>3057358429</v>
       </c>
     </row>
-    <row r="320" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>3310</v>
       </c>
@@ -38235,7 +38236,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="321" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>3321</v>
       </c>
@@ -38293,7 +38294,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="322" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>3331</v>
       </c>
@@ -38349,7 +38350,7 @@
       </c>
       <c r="T322" s="9"/>
     </row>
-    <row r="323" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>3342</v>
       </c>
@@ -38407,7 +38408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>3351</v>
       </c>
@@ -38465,7 +38466,7 @@
         <v>8788649</v>
       </c>
     </row>
-    <row r="325" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>3361</v>
       </c>
@@ -38523,7 +38524,7 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="326" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>3373</v>
       </c>
@@ -38581,7 +38582,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="327" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>3385</v>
       </c>
@@ -38639,7 +38640,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="328" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>3396</v>
       </c>
@@ -38699,7 +38700,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="329" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>3409</v>
       </c>
@@ -38757,7 +38758,7 @@
         <v>7285020</v>
       </c>
     </row>
-    <row r="330" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="11" t="s">
         <v>3417</v>
       </c>
@@ -38811,7 +38812,7 @@
       </c>
       <c r="T330" s="12"/>
     </row>
-    <row r="331" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>3427</v>
       </c>
@@ -38869,7 +38870,7 @@
         <v>3177584371</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>3434</v>
       </c>
@@ -38927,7 +38928,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="333" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>3444</v>
       </c>
@@ -38985,7 +38986,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="334" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
         <v>3457</v>
       </c>
@@ -39043,7 +39044,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="335" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
         <v>3467</v>
       </c>
@@ -39101,7 +39102,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="336" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>3479</v>
       </c>
@@ -39161,7 +39162,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="337" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>3493</v>
       </c>
@@ -39217,7 +39218,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="338" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>3505</v>
       </c>
@@ -39275,7 +39276,7 @@
         <v>3104204743</v>
       </c>
     </row>
-    <row r="339" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>3516</v>
       </c>
@@ -39333,7 +39334,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="340" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>3528</v>
       </c>
@@ -39391,7 +39392,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="341" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>3541</v>
       </c>
@@ -39449,7 +39450,7 @@
         <v>3127723317</v>
       </c>
     </row>
-    <row r="342" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>3552</v>
       </c>
@@ -39507,7 +39508,7 @@
         <v>3373444</v>
       </c>
     </row>
-    <row r="343" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="11" t="s">
         <v>3565</v>
       </c>
@@ -39563,7 +39564,7 @@
         <v>3137287</v>
       </c>
     </row>
-    <row r="344" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>3575</v>
       </c>
@@ -39621,7 +39622,7 @@
         <v>3163849083</v>
       </c>
     </row>
-    <row r="345" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>3587</v>
       </c>
@@ -39679,7 +39680,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="346" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="11" t="s">
         <v>3600</v>
       </c>
@@ -39735,7 +39736,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="347" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>3612</v>
       </c>
@@ -39791,7 +39792,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="348" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>3622</v>
       </c>
@@ -39849,7 +39850,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="349" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>3631</v>
       </c>
@@ -39907,7 +39908,7 @@
         <v>2210565</v>
       </c>
     </row>
-    <row r="350" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>3642</v>
       </c>
@@ -39965,7 +39966,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="351" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>3654</v>
       </c>
@@ -40023,7 +40024,7 @@
         <v>3174408671</v>
       </c>
     </row>
-    <row r="352" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>3665</v>
       </c>
@@ -40081,7 +40082,7 @@
         <v>3167437279</v>
       </c>
     </row>
-    <row r="353" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>3676</v>
       </c>
@@ -40135,7 +40136,7 @@
       </c>
       <c r="T353" s="9"/>
     </row>
-    <row r="354" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
         <v>3687</v>
       </c>
@@ -40193,7 +40194,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="355" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
         <v>3701</v>
       </c>
@@ -40251,7 +40252,7 @@
         <v>3713</v>
       </c>
     </row>
-    <row r="356" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>3714</v>
       </c>
@@ -40307,7 +40308,7 @@
         <v>3147800256</v>
       </c>
     </row>
-    <row r="357" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>3725</v>
       </c>
@@ -40365,7 +40366,7 @@
         <v>3183470690</v>
       </c>
     </row>
-    <row r="358" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>3735</v>
       </c>
@@ -40425,7 +40426,7 @@
         <v>3128664667</v>
       </c>
     </row>
-    <row r="359" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>3744</v>
       </c>
@@ -40483,7 +40484,7 @@
         <v>3147740985</v>
       </c>
     </row>
-    <row r="360" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>3755</v>
       </c>
@@ -40541,7 +40542,7 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="361" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>3768</v>
       </c>
@@ -40599,7 +40600,7 @@
         <v>6817901</v>
       </c>
     </row>
-    <row r="362" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>3779</v>
       </c>
@@ -40655,7 +40656,7 @@
         <v>3135101168</v>
       </c>
     </row>
-    <row r="363" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>3787</v>
       </c>
@@ -40713,7 +40714,7 @@
         <v>3798</v>
       </c>
     </row>
-    <row r="364" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>3799</v>
       </c>
@@ -40769,7 +40770,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="365" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>3807</v>
       </c>
@@ -40827,7 +40828,7 @@
         <v>3106059151</v>
       </c>
     </row>
-    <row r="366" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>3816</v>
       </c>
@@ -40885,7 +40886,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="367" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>3827</v>
       </c>
@@ -40941,7 +40942,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="368" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="11" t="s">
         <v>3839</v>
       </c>
@@ -40995,7 +40996,7 @@
       </c>
       <c r="T368" s="12"/>
     </row>
-    <row r="369" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="11" t="s">
         <v>3851</v>
       </c>
@@ -41049,7 +41050,7 @@
         <v>8879300</v>
       </c>
     </row>
-    <row r="370" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="11" t="s">
         <v>3860</v>
       </c>
@@ -41103,7 +41104,7 @@
       </c>
       <c r="T370" s="12"/>
     </row>
-    <row r="371" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="11" t="s">
         <v>3860</v>
       </c>
@@ -41159,7 +41160,7 @@
         <v>7250989</v>
       </c>
     </row>
-    <row r="372" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>3876</v>
       </c>
@@ -41217,7 +41218,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="373" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>3887</v>
       </c>
@@ -41273,7 +41274,7 @@
         <v>3132855857</v>
       </c>
     </row>
-    <row r="374" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>3896</v>
       </c>
@@ -41331,7 +41332,7 @@
         <v>3107846721</v>
       </c>
     </row>
-    <row r="375" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>3907</v>
       </c>
@@ -41389,7 +41390,7 @@
         <v>3103469559</v>
       </c>
     </row>
-    <row r="376" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="11" t="s">
         <v>3919</v>
       </c>
@@ -41443,7 +41444,7 @@
       </c>
       <c r="T376" s="12"/>
     </row>
-    <row r="377" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" s="2" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="11" t="s">
         <v>3930</v>
       </c>
@@ -41499,7 +41500,7 @@
         <v>3232090562</v>
       </c>
     </row>
-    <row r="378" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="11" t="s">
         <v>3939</v>
       </c>
@@ -41555,7 +41556,7 @@
         <v>3199000</v>
       </c>
     </row>
-    <row r="379" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="11" t="s">
         <v>3948</v>
       </c>
@@ -41611,7 +41612,7 @@
         <v>3118084436</v>
       </c>
     </row>
-    <row r="380" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="11" t="s">
         <v>3955</v>
       </c>
@@ -41663,7 +41664,7 @@
       </c>
       <c r="T380" s="12"/>
     </row>
-    <row r="381" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="11" t="s">
         <v>3964</v>
       </c>
@@ -41717,7 +41718,7 @@
         <v>3168293025</v>
       </c>
     </row>
-    <row r="382" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="11" t="s">
         <v>3970</v>
       </c>
@@ -41769,7 +41770,7 @@
       </c>
       <c r="T382" s="12"/>
     </row>
-    <row r="383" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>3978</v>
       </c>
@@ -41827,7 +41828,7 @@
         <v>7269596</v>
       </c>
     </row>
-    <row r="384" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="11" t="s">
         <v>3987</v>
       </c>
@@ -41881,7 +41882,7 @@
       </c>
       <c r="T384" s="12"/>
     </row>
-    <row r="385" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="11" t="s">
         <v>3997</v>
       </c>
@@ -41935,7 +41936,7 @@
       </c>
       <c r="T385" s="12"/>
     </row>
-    <row r="386" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="11" t="s">
         <v>3997</v>
       </c>
@@ -41991,7 +41992,7 @@
         <v>3003507450</v>
       </c>
     </row>
-    <row r="387" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>4012</v>
       </c>
@@ -42049,7 +42050,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="388" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>4024</v>
       </c>
@@ -42107,7 +42108,7 @@
         <v>8450424</v>
       </c>
     </row>
-    <row r="389" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>4034</v>
       </c>
@@ -42165,7 +42166,7 @@
         <v>3168678460</v>
       </c>
     </row>
-    <row r="390" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>4043</v>
       </c>
@@ -42221,7 +42222,7 @@
         <v>3142602509</v>
       </c>
     </row>
-    <row r="391" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="11" t="s">
         <v>4053</v>
       </c>
@@ -42277,7 +42278,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="392" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="11" t="s">
         <v>4053</v>
       </c>
@@ -42333,7 +42334,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="393" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>4065</v>
       </c>
@@ -42389,7 +42390,7 @@
         <v>3227045715</v>
       </c>
     </row>
-    <row r="394" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>4075</v>
       </c>
@@ -42447,7 +42448,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="395" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>4088</v>
       </c>
@@ -42505,7 +42506,7 @@
         <v>6607449</v>
       </c>
     </row>
-    <row r="396" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>4097</v>
       </c>
@@ -42563,7 +42564,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="397" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>4107</v>
       </c>
@@ -42621,7 +42622,7 @@
         <v>3142805792</v>
       </c>
     </row>
-    <row r="398" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="11" t="s">
         <v>4117</v>
       </c>
@@ -42677,7 +42678,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="399" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>4128</v>
       </c>
@@ -42737,7 +42738,7 @@
         <v>3214154415</v>
       </c>
     </row>
-    <row r="400" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="11" t="s">
         <v>4139</v>
       </c>
@@ -42789,7 +42790,7 @@
       </c>
       <c r="T400" s="12"/>
     </row>
-    <row r="401" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="11" t="s">
         <v>4139</v>
       </c>
@@ -42841,7 +42842,7 @@
       </c>
       <c r="T401" s="12"/>
     </row>
-    <row r="402" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>4149</v>
       </c>
@@ -42899,7 +42900,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="403" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="11" t="s">
         <v>4159</v>
       </c>
@@ -42951,7 +42952,7 @@
       </c>
       <c r="T403" s="12"/>
     </row>
-    <row r="404" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="11" t="s">
         <v>4167</v>
       </c>
@@ -43003,7 +43004,7 @@
       </c>
       <c r="T404" s="12"/>
     </row>
-    <row r="405" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="11" t="s">
         <v>4176</v>
       </c>
@@ -43057,7 +43058,7 @@
       </c>
       <c r="T405" s="12"/>
     </row>
-    <row r="406" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="11" t="s">
         <v>4184</v>
       </c>
@@ -43111,7 +43112,7 @@
       </c>
       <c r="T406" s="12"/>
     </row>
-    <row r="407" s="2" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" s="2" customFormat="true" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="11" t="s">
         <v>4193</v>
       </c>
@@ -43165,7 +43166,7 @@
         <v>7275077</v>
       </c>
     </row>
-    <row r="408" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6" t="s">
         <v>4201</v>
       </c>
@@ -43223,7 +43224,7 @@
         <v>3177346131</v>
       </c>
     </row>
-    <row r="409" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="11" t="s">
         <v>4210</v>
       </c>
@@ -43277,7 +43278,7 @@
       </c>
       <c r="T409" s="12"/>
     </row>
-    <row r="410" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>4220</v>
       </c>
@@ -43337,7 +43338,7 @@
         <v>3216063235</v>
       </c>
     </row>
-    <row r="411" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="11" t="s">
         <v>4231</v>
       </c>
@@ -43389,7 +43390,7 @@
       </c>
       <c r="T411" s="12"/>
     </row>
-    <row r="412" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="11" t="s">
         <v>4238</v>
       </c>
@@ -43441,7 +43442,7 @@
       </c>
       <c r="T412" s="12"/>
     </row>
-    <row r="413" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="11" t="s">
         <v>4238</v>
       </c>
@@ -43493,7 +43494,7 @@
       </c>
       <c r="T413" s="12"/>
     </row>
-    <row r="414" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="11" t="s">
         <v>4238</v>
       </c>
@@ -43545,7 +43546,7 @@
       </c>
       <c r="T414" s="12"/>
     </row>
-    <row r="415" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="11" t="s">
         <v>4250</v>
       </c>
@@ -43599,7 +43600,7 @@
       </c>
       <c r="T415" s="12"/>
     </row>
-    <row r="416" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="11" t="s">
         <v>4250</v>
       </c>
@@ -43655,7 +43656,7 @@
       </c>
       <c r="T416" s="12"/>
     </row>
-    <row r="417" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>4270</v>
       </c>
@@ -43709,7 +43710,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="418" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>4278</v>
       </c>
@@ -43767,7 +43768,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="419" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>4291</v>
       </c>
@@ -43825,7 +43826,7 @@
         <v>3184723474</v>
       </c>
     </row>
-    <row r="420" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>4302</v>
       </c>
@@ -43883,7 +43884,7 @@
         <v>3006628041</v>
       </c>
     </row>
-    <row r="421" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>4313</v>
       </c>
@@ -43941,7 +43942,7 @@
         <v>3146216200</v>
       </c>
     </row>
-    <row r="422" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>4321</v>
       </c>
@@ -43997,7 +43998,7 @@
         <v>3209307734</v>
       </c>
     </row>
-    <row r="423" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="11" t="s">
         <v>4331</v>
       </c>
@@ -44051,7 +44052,7 @@
       </c>
       <c r="T423" s="12"/>
     </row>
-    <row r="424" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="11" t="s">
         <v>4331</v>
       </c>
@@ -44107,7 +44108,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="425" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="11" t="s">
         <v>4351</v>
       </c>
@@ -44161,7 +44162,7 @@
       </c>
       <c r="T425" s="12"/>
     </row>
-    <row r="426" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="11" t="s">
         <v>4351</v>
       </c>
@@ -44215,7 +44216,7 @@
       </c>
       <c r="T426" s="12"/>
     </row>
-    <row r="427" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="11" t="s">
         <v>4365</v>
       </c>
@@ -44269,7 +44270,7 @@
       </c>
       <c r="T427" s="12"/>
     </row>
-    <row r="428" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="11" t="s">
         <v>4365</v>
       </c>
@@ -44323,7 +44324,7 @@
       </c>
       <c r="T428" s="12"/>
     </row>
-    <row r="429" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="11" t="s">
         <v>4383</v>
       </c>
@@ -44377,7 +44378,7 @@
       </c>
       <c r="T429" s="12"/>
     </row>
-    <row r="430" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="11" t="s">
         <v>4392</v>
       </c>
@@ -44431,7 +44432,7 @@
       </c>
       <c r="T430" s="12"/>
     </row>
-    <row r="431" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="11" t="s">
         <v>4400</v>
       </c>
@@ -44483,7 +44484,7 @@
       </c>
       <c r="T431" s="12"/>
     </row>
-    <row r="432" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="11" t="s">
         <v>4407</v>
       </c>
@@ -44537,7 +44538,7 @@
       </c>
       <c r="T432" s="12"/>
     </row>
-    <row r="433" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" s="2" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="11" t="s">
         <v>4415</v>
       </c>
@@ -44591,7 +44592,7 @@
       </c>
       <c r="T433" s="12"/>
     </row>
-    <row r="434" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>4424</v>
       </c>
@@ -44647,7 +44648,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="435" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>4434</v>
       </c>
@@ -44705,7 +44706,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="436" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>4444</v>
       </c>
@@ -44763,7 +44764,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="437" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>4449</v>
       </c>
@@ -44821,7 +44822,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="438" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>4460</v>
       </c>
@@ -44879,7 +44880,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="439" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>4466</v>
       </c>
@@ -44937,7 +44938,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="440" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>4475</v>
       </c>
@@ -44995,7 +44996,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="441" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>4480</v>
       </c>
@@ -45053,7 +45054,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="442" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>4487</v>
       </c>
@@ -45109,7 +45110,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="443" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>4496</v>
       </c>
@@ -45167,7 +45168,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="444" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>4506</v>
       </c>
@@ -45225,7 +45226,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="445" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>4511</v>
       </c>
@@ -45283,7 +45284,7 @@
         <v>3209307734</v>
       </c>
     </row>
-    <row r="446" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>4518</v>
       </c>
@@ -45341,7 +45342,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="447" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>4525</v>
       </c>
@@ -45399,7 +45400,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="448" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>4533</v>
       </c>
@@ -45457,7 +45458,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="449" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>4540</v>
       </c>
@@ -45515,7 +45516,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="450" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>4546</v>
       </c>
@@ -45573,7 +45574,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="451" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>4555</v>
       </c>
@@ -45631,7 +45632,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="452" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>4566</v>
       </c>
@@ -45689,7 +45690,7 @@
         <v>3128225200</v>
       </c>
     </row>
-    <row r="453" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>4575</v>
       </c>
@@ -45747,7 +45748,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="454" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>4582</v>
       </c>
@@ -45805,7 +45806,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="455" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>4592</v>
       </c>
@@ -45863,7 +45864,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="456" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>4602</v>
       </c>
@@ -45921,7 +45922,7 @@
         <v>3013842272</v>
       </c>
     </row>
-    <row r="457" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>4607</v>
       </c>
@@ -45979,7 +45980,7 @@
         <v>6710203</v>
       </c>
     </row>
-    <row r="458" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>4613</v>
       </c>
@@ -46037,7 +46038,7 @@
         <v>3142824429</v>
       </c>
     </row>
-    <row r="459" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>4621</v>
       </c>
@@ -46095,7 +46096,7 @@
         <v>3158982821</v>
       </c>
     </row>
-    <row r="460" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>4632</v>
       </c>
@@ -46153,7 +46154,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="461" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>4639</v>
       </c>
@@ -46211,7 +46212,7 @@
         <v>3126910387</v>
       </c>
     </row>
-    <row r="462" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>4646</v>
       </c>
@@ -46269,7 +46270,7 @@
         <v>3217478593</v>
       </c>
     </row>
-    <row r="463" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>4655</v>
       </c>
@@ -46325,7 +46326,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="464" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>4664</v>
       </c>
@@ -46383,7 +46384,7 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="465" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>4673</v>
       </c>
@@ -46441,7 +46442,7 @@
         <v>3107768394</v>
       </c>
     </row>
-    <row r="466" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>4681</v>
       </c>
@@ -46499,7 +46500,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="467" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>4690</v>
       </c>
@@ -46557,7 +46558,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="468" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>4696</v>
       </c>
@@ -46615,7 +46616,7 @@
         <v>3193197789</v>
       </c>
     </row>
-    <row r="469" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>4705</v>
       </c>
@@ -46673,7 +46674,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="470" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6" t="s">
         <v>4709</v>
       </c>
@@ -46731,7 +46732,7 @@
         <v>3228206281</v>
       </c>
     </row>
-    <row r="471" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6" t="s">
         <v>4714</v>
       </c>
@@ -46789,7 +46790,7 @@
         <v>3208470938</v>
       </c>
     </row>
-    <row r="472" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>4718</v>
       </c>
@@ -46847,7 +46848,7 @@
         <v>3143341399</v>
       </c>
     </row>
-    <row r="473" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>4721</v>
       </c>
@@ -46905,7 +46906,7 @@
         <v>2831107</v>
       </c>
     </row>
-    <row r="474" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>4730</v>
       </c>
@@ -46967,7 +46968,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="475" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>4737</v>
       </c>
@@ -47025,7 +47026,7 @@
         <v>3204911044</v>
       </c>
     </row>
-    <row r="476" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>4742</v>
       </c>
@@ -47083,7 +47084,7 @@
         <v>3152177627</v>
       </c>
     </row>
-    <row r="477" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>4746</v>
       </c>
@@ -47141,7 +47142,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="478" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>4754</v>
       </c>
@@ -47199,7 +47200,7 @@
         <v>4759</v>
       </c>
     </row>
-    <row r="479" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>4760</v>
       </c>
@@ -47259,7 +47260,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="480" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>4767</v>
       </c>
@@ -47315,7 +47316,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="481" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>4779</v>
       </c>
@@ -47373,7 +47374,7 @@
         <v>3134413823</v>
       </c>
     </row>
-    <row r="482" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6" t="s">
         <v>4789</v>
       </c>
@@ -47429,7 +47430,7 @@
       </c>
       <c r="T482" s="9"/>
     </row>
-    <row r="483" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6" t="s">
         <v>4792</v>
       </c>
@@ -47487,7 +47488,7 @@
         <v>3007537892</v>
       </c>
     </row>
-    <row r="484" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6" t="s">
         <v>4797</v>
       </c>
@@ -47545,7 +47546,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="485" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6" t="s">
         <v>4807</v>
       </c>
@@ -47603,7 +47604,7 @@
         <v>3007428729</v>
       </c>
     </row>
-    <row r="486" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6" t="s">
         <v>4818</v>
       </c>
@@ -47661,7 +47662,7 @@
         <v>8574048</v>
       </c>
     </row>
-    <row r="487" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6" t="s">
         <v>4825</v>
       </c>
@@ -47719,7 +47720,7 @@
         <v>3004122641</v>
       </c>
     </row>
-    <row r="488" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6" t="s">
         <v>4834</v>
       </c>
@@ -47779,7 +47780,7 @@
         <v>314560689</v>
       </c>
     </row>
-    <row r="489" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6" t="s">
         <v>4839</v>
       </c>
@@ -47837,7 +47838,7 @@
         <v>3215743409</v>
       </c>
     </row>
-    <row r="490" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6" t="s">
         <v>4848</v>
       </c>
@@ -47895,7 +47896,7 @@
         <v>3144923700</v>
       </c>
     </row>
-    <row r="491" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="6" t="s">
         <v>4855</v>
       </c>
@@ -47953,7 +47954,7 @@
         <v>3102462151</v>
       </c>
     </row>
-    <row r="492" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="6" t="s">
         <v>4866</v>
       </c>
@@ -48011,7 +48012,7 @@
         <v>3168882122</v>
       </c>
     </row>
-    <row r="493" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="6" t="s">
         <v>4871</v>
       </c>
@@ -48069,7 +48070,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="494" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="6" t="s">
         <v>4877</v>
       </c>
@@ -48127,7 +48128,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="495" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="6" t="s">
         <v>4882</v>
       </c>
@@ -48183,7 +48184,7 @@
         <v>3104341017</v>
       </c>
     </row>
-    <row r="496" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="6" t="s">
         <v>4890</v>
       </c>
@@ -48241,7 +48242,7 @@
         <v>3183559903</v>
       </c>
     </row>
-    <row r="497" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="6" t="s">
         <v>4898</v>
       </c>
@@ -48297,7 +48298,7 @@
         <v>3114234024</v>
       </c>
     </row>
-    <row r="498" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="6" t="s">
         <v>4908</v>
       </c>
@@ -48355,7 +48356,7 @@
         <v>3012750770</v>
       </c>
     </row>
-    <row r="499" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="6" t="s">
         <v>4917</v>
       </c>
@@ -48413,7 +48414,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="500" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="6" t="s">
         <v>4929</v>
       </c>
@@ -48471,7 +48472,7 @@
         <v>3124498759</v>
       </c>
     </row>
-    <row r="501" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6" t="s">
         <v>4938</v>
       </c>
@@ -48529,7 +48530,7 @@
         <v>3043513566</v>
       </c>
     </row>
-    <row r="502" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="6" t="s">
         <v>4944</v>
       </c>
@@ -48585,7 +48586,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="503" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="6" t="s">
         <v>4954</v>
       </c>
@@ -48643,7 +48644,7 @@
         <v>6710203</v>
       </c>
     </row>
-    <row r="504" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="6" t="s">
         <v>4961</v>
       </c>
@@ -48701,7 +48702,7 @@
         <v>3116156253</v>
       </c>
     </row>
-    <row r="505" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="6" t="s">
         <v>4973</v>
       </c>
@@ -48759,7 +48760,7 @@
         <v>3144821346</v>
       </c>
     </row>
-    <row r="506" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="6" t="s">
         <v>4978</v>
       </c>
@@ -48815,7 +48816,7 @@
         <v>3183503757</v>
       </c>
     </row>
-    <row r="507" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="6" t="s">
         <v>4988</v>
       </c>
@@ -48871,7 +48872,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="508" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="6" t="s">
         <v>4996</v>
       </c>
@@ -48929,7 +48930,7 @@
         <v>3102080633</v>
       </c>
     </row>
-    <row r="509" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6" t="s">
         <v>5001</v>
       </c>
@@ -48987,7 +48988,7 @@
         <v>2747948</v>
       </c>
     </row>
-    <row r="510" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6" t="s">
         <v>5006</v>
       </c>
@@ -49045,7 +49046,7 @@
         <v>3202302976</v>
       </c>
     </row>
-    <row r="511" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6" t="s">
         <v>5016</v>
       </c>
@@ -49103,7 +49104,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="512" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6" t="s">
         <v>5023</v>
       </c>
@@ -49157,7 +49158,7 @@
       </c>
       <c r="T512" s="9"/>
     </row>
-    <row r="513" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6" t="s">
         <v>5028</v>
       </c>
@@ -49215,7 +49216,7 @@
         <v>8559099</v>
       </c>
     </row>
-    <row r="514" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6" t="s">
         <v>5033</v>
       </c>
@@ -49273,7 +49274,7 @@
         <v>3136585224</v>
       </c>
     </row>
-    <row r="515" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6" t="s">
         <v>5040</v>
       </c>
@@ -49331,7 +49332,7 @@
         <v>3128324719</v>
       </c>
     </row>
-    <row r="516" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6" t="s">
         <v>5048</v>
       </c>
@@ -49389,7 +49390,7 @@
         <v>3206984918</v>
       </c>
     </row>
-    <row r="517" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6" t="s">
         <v>5055</v>
       </c>
@@ -49447,7 +49448,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="518" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="6" t="s">
         <v>5064</v>
       </c>
@@ -49505,7 +49506,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="519" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="6" t="s">
         <v>5073</v>
       </c>
@@ -49563,7 +49564,7 @@
         <v>5079</v>
       </c>
     </row>
-    <row r="520" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="6" t="s">
         <v>5080</v>
       </c>
@@ -49621,7 +49622,7 @@
         <v>5085</v>
       </c>
     </row>
-    <row r="521" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="6" t="s">
         <v>5090</v>
       </c>
@@ -49683,7 +49684,7 @@
         <v>3145645871</v>
       </c>
     </row>
-    <row r="522" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="6" t="s">
         <v>5101</v>
       </c>
@@ -49741,7 +49742,7 @@
         <v>5111</v>
       </c>
     </row>
-    <row r="523" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6" t="s">
         <v>5112</v>
       </c>
@@ -49799,7 +49800,7 @@
         <v>3114526658</v>
       </c>
     </row>
-    <row r="524" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6" t="s">
         <v>5121</v>
       </c>
@@ -49857,7 +49858,7 @@
         <v>3203025395</v>
       </c>
     </row>
-    <row r="525" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6" t="s">
         <v>5126</v>
       </c>
@@ -49915,7 +49916,7 @@
         <v>8847713</v>
       </c>
     </row>
-    <row r="526" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="6" t="s">
         <v>5135</v>
       </c>
@@ -49973,7 +49974,7 @@
         <v>3177346131</v>
       </c>
     </row>
-    <row r="527" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="6" t="s">
         <v>5143</v>
       </c>
@@ -50033,7 +50034,7 @@
         <v>3122707993</v>
       </c>
     </row>
-    <row r="528" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="6" t="s">
         <v>5153</v>
       </c>
@@ -50093,7 +50094,7 @@
         <v>3147835251</v>
       </c>
     </row>
-    <row r="529" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6" t="s">
         <v>5167</v>
       </c>
@@ -50153,7 +50154,7 @@
         <v>3012082901</v>
       </c>
     </row>
-    <row r="530" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="6" t="s">
         <v>5176</v>
       </c>
@@ -50211,7 +50212,7 @@
         <v>3177635030</v>
       </c>
     </row>
-    <row r="531" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="6" t="s">
         <v>5187</v>
       </c>
@@ -50269,7 +50270,7 @@
         <v>5197</v>
       </c>
     </row>
-    <row r="532" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="6" t="s">
         <v>5198</v>
       </c>
@@ -50329,7 +50330,7 @@
         <v>8556088</v>
       </c>
     </row>
-    <row r="533" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="6" t="s">
         <v>5208</v>
       </c>
@@ -50387,7 +50388,7 @@
         <v>3192510553</v>
       </c>
     </row>
-    <row r="534" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="6" t="s">
         <v>5217</v>
       </c>
@@ -50447,7 +50448,7 @@
         <v>3505384200</v>
       </c>
     </row>
-    <row r="535" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="6" t="s">
         <v>5230</v>
       </c>
@@ -50507,7 +50508,7 @@
         <v>3107846721</v>
       </c>
     </row>
-    <row r="536" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="6" t="s">
         <v>5237</v>
       </c>
@@ -50565,7 +50566,7 @@
         <v>5248</v>
       </c>
     </row>
-    <row r="537" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="6" t="s">
         <v>5249</v>
       </c>
@@ -50623,7 +50624,7 @@
         <v>3114573846</v>
       </c>
     </row>
-    <row r="538" s="2" customFormat="true" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" s="2" customFormat="true" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6" t="s">
         <v>5259</v>
       </c>
@@ -50681,7 +50682,7 @@
         <v>3214154415</v>
       </c>
     </row>
-    <row r="539" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6" t="s">
         <v>5266</v>
       </c>
@@ -50739,7 +50740,7 @@
         <v>6710203</v>
       </c>
     </row>
-    <row r="540" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6" t="s">
         <v>5272</v>
       </c>
@@ -50797,7 +50798,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="541" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6" t="s">
         <v>5283</v>
       </c>
@@ -50855,7 +50856,7 @@
         <v>3163720547</v>
       </c>
     </row>
-    <row r="542" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="6" t="s">
         <v>5289</v>
       </c>
@@ -50913,7 +50914,7 @@
         <v>8384053</v>
       </c>
     </row>
-    <row r="543" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="6" t="s">
         <v>5293</v>
       </c>
@@ -50971,7 +50972,7 @@
         <v>3057358429</v>
       </c>
     </row>
-    <row r="544" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="6" t="s">
         <v>5295</v>
       </c>
@@ -51029,7 +51030,7 @@
         <v>3213364594</v>
       </c>
     </row>
-    <row r="545" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="6" t="s">
         <v>5303</v>
       </c>
@@ -51087,7 +51088,7 @@
         <v>5663847</v>
       </c>
     </row>
-    <row r="546" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="6" t="s">
         <v>5312</v>
       </c>
@@ -51147,7 +51148,7 @@
         <v>7485951</v>
       </c>
     </row>
-    <row r="547" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="6" t="s">
         <v>5321</v>
       </c>
@@ -51205,7 +51206,7 @@
         <v>7569019</v>
       </c>
     </row>
-    <row r="548" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="6" t="s">
         <v>5325</v>
       </c>
@@ -51263,7 +51264,7 @@
         <v>7187418</v>
       </c>
     </row>
-    <row r="549" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="6" t="s">
         <v>5333</v>
       </c>
@@ -51321,7 +51322,7 @@
         <v>6348809</v>
       </c>
     </row>
-    <row r="550" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="6" t="s">
         <v>5338</v>
       </c>
@@ -51379,7 +51380,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="551" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="6" t="s">
         <v>5348</v>
       </c>
@@ -51437,7 +51438,7 @@
         <v>3214092759</v>
       </c>
     </row>
-    <row r="552" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="6" t="s">
         <v>5360</v>
       </c>
@@ -51495,7 +51496,7 @@
         <v>3173080083</v>
       </c>
     </row>
-    <row r="553" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="6" t="s">
         <v>5370</v>
       </c>
@@ -51553,7 +51554,7 @@
         <v>3136585034</v>
       </c>
     </row>
-    <row r="554" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="6" t="s">
         <v>5381</v>
       </c>
@@ -51611,7 +51612,7 @@
         <v>3177584371</v>
       </c>
     </row>
-    <row r="555" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="6" t="s">
         <v>5388</v>
       </c>
@@ -51669,7 +51670,7 @@
         <v>3043787151</v>
       </c>
     </row>
-    <row r="556" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="6" t="s">
         <v>5396</v>
       </c>
@@ -51727,7 +51728,7 @@
         <v>3103205300</v>
       </c>
     </row>
-    <row r="557" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="6" t="s">
         <v>5401</v>
       </c>
@@ -51785,7 +51786,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="558" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="6" t="s">
         <v>5406</v>
       </c>
@@ -51843,7 +51844,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="559" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="6" t="s">
         <v>5413</v>
       </c>
@@ -51901,7 +51902,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="560" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="6" t="s">
         <v>5419</v>
       </c>
@@ -51959,7 +51960,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="561" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="6" t="s">
         <v>5424</v>
       </c>
@@ -52017,7 +52018,7 @@
         <v>5435</v>
       </c>
     </row>
-    <row r="562" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="6" t="s">
         <v>5436</v>
       </c>
@@ -52075,7 +52076,7 @@
         <v>8562681</v>
       </c>
     </row>
-    <row r="563" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="6" t="s">
         <v>5442</v>
       </c>
@@ -52133,7 +52134,7 @@
         <v>5447</v>
       </c>
     </row>
-    <row r="564" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="6" t="s">
         <v>5452</v>
       </c>
@@ -52191,7 +52192,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="565" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="6" t="s">
         <v>5461</v>
       </c>
@@ -52249,7 +52250,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="566" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="6" t="s">
         <v>5466</v>
       </c>
@@ -52275,7 +52276,7 @@
         <v>37</v>
       </c>
       <c r="I566" s="6" t="s">
-        <v>38</v>
+        <v>1067</v>
       </c>
       <c r="J566" s="7" t="s">
         <v>39</v>
@@ -52307,7 +52308,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="567" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="6" t="s">
         <v>5473</v>
       </c>
@@ -52367,7 +52368,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="568" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="6" t="s">
         <v>5481</v>
       </c>
@@ -52427,7 +52428,7 @@
         <v>6888223</v>
       </c>
     </row>
-    <row r="569" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="6" t="s">
         <v>5486</v>
       </c>
@@ -52485,7 +52486,7 @@
         <v>5492</v>
       </c>
     </row>
-    <row r="570" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6" t="s">
         <v>5496</v>
       </c>
@@ -52543,7 +52544,7 @@
         <v>7897228</v>
       </c>
     </row>
-    <row r="571" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="6" t="s">
         <v>5505</v>
       </c>
@@ -52601,7 +52602,7 @@
         <v>5509</v>
       </c>
     </row>
-    <row r="572" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="6" t="s">
         <v>5510</v>
       </c>
@@ -52659,7 +52660,7 @@
         <v>5519</v>
       </c>
     </row>
-    <row r="573" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="6" t="s">
         <v>5520</v>
       </c>
@@ -52717,7 +52718,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="574" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="6" t="s">
         <v>5525</v>
       </c>
@@ -52777,7 +52778,7 @@
         <v>5536</v>
       </c>
     </row>
-    <row r="575" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="6" t="s">
         <v>5537</v>
       </c>
@@ -52835,7 +52836,7 @@
         <v>3216420215</v>
       </c>
     </row>
-    <row r="576" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="6" t="s">
         <v>5545</v>
       </c>
@@ -52895,7 +52896,7 @@
         <v>3147835251</v>
       </c>
     </row>
-    <row r="577" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="6" t="s">
         <v>5551</v>
       </c>
@@ -52953,7 +52954,7 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="578" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="6" t="s">
         <v>5560</v>
       </c>
@@ -53011,7 +53012,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="579" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="6" t="s">
         <v>5569</v>
       </c>
@@ -53069,7 +53070,7 @@
         <v>3013123067</v>
       </c>
     </row>
-    <row r="580" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="6" t="s">
         <v>5577</v>
       </c>
@@ -53125,7 +53126,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="581" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="6" t="s">
         <v>5582</v>
       </c>
@@ -53183,7 +53184,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="582" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="6" t="s">
         <v>5588</v>
       </c>
@@ -53239,7 +53240,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="583" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="6" t="s">
         <v>5592</v>
       </c>
@@ -53297,7 +53298,7 @@
         <v>5598</v>
       </c>
     </row>
-    <row r="584" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="6" t="s">
         <v>5602</v>
       </c>
@@ -53355,7 +53356,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="585" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="6" t="s">
         <v>5609</v>
       </c>
@@ -53413,7 +53414,7 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="586" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="6" t="s">
         <v>5617</v>
       </c>
@@ -53471,7 +53472,7 @@
         <v>5620</v>
       </c>
     </row>
-    <row r="587" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="6" t="s">
         <v>5622</v>
       </c>
@@ -53529,7 +53530,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="588" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="6" t="s">
         <v>5629</v>
       </c>
@@ -53587,7 +53588,7 @@
         <v>5636</v>
       </c>
     </row>
-    <row r="589" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="6" t="s">
         <v>5637</v>
       </c>
@@ -53645,7 +53646,7 @@
         <v>3135550</v>
       </c>
     </row>
-    <row r="590" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="6" t="s">
         <v>5641</v>
       </c>
@@ -53703,7 +53704,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="591" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="6" t="s">
         <v>5642</v>
       </c>
@@ -53761,7 +53762,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="592" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="6" t="s">
         <v>5646</v>
       </c>
@@ -53819,7 +53820,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="593" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="6" t="s">
         <v>5653</v>
       </c>
@@ -53877,7 +53878,7 @@
         <v>3202836312</v>
       </c>
     </row>
-    <row r="594" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="6" t="s">
         <v>5661</v>
       </c>
@@ -53935,7 +53936,7 @@
         <v>7279145</v>
       </c>
     </row>
-    <row r="595" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="6" t="s">
         <v>5664</v>
       </c>
@@ -53997,7 +53998,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="596" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="6" t="s">
         <v>5672</v>
       </c>
@@ -54055,7 +54056,7 @@
         <v>5678</v>
       </c>
     </row>
-    <row r="597" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="6" t="s">
         <v>5680</v>
       </c>
@@ -54113,7 +54114,7 @@
         <v>5686</v>
       </c>
     </row>
-    <row r="598" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="6" t="s">
         <v>5689</v>
       </c>
@@ -54171,7 +54172,7 @@
         <v>5694</v>
       </c>
     </row>
-    <row r="599" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="6" t="s">
         <v>5697</v>
       </c>
@@ -54229,7 +54230,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="600" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="6" t="s">
         <v>5702</v>
       </c>
@@ -54287,7 +54288,7 @@
         <v>5707</v>
       </c>
     </row>
-    <row r="601" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="6" t="s">
         <v>5708</v>
       </c>
@@ -54345,7 +54346,7 @@
         <v>5715</v>
       </c>
     </row>
-    <row r="602" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="6" t="s">
         <v>5716</v>
       </c>
@@ -54401,7 +54402,7 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="603" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="6" t="s">
         <v>5720</v>
       </c>
@@ -54459,7 +54460,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="604" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="6" t="s">
         <v>5728</v>
       </c>
@@ -54517,7 +54518,7 @@
         <v>5734</v>
       </c>
     </row>
-    <row r="605" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="6" t="s">
         <v>5738</v>
       </c>
@@ -54573,7 +54574,7 @@
         <v>3122408822</v>
       </c>
     </row>
-    <row r="606" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6" t="s">
         <v>5743</v>
       </c>
@@ -54631,7 +54632,7 @@
         <v>3095032</v>
       </c>
     </row>
-    <row r="607" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="6" t="s">
         <v>5749</v>
       </c>
@@ -54687,7 +54688,7 @@
         <v>5754</v>
       </c>
     </row>
-    <row r="608" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="6" t="s">
         <v>5758</v>
       </c>
@@ -54745,7 +54746,7 @@
         <v>5765</v>
       </c>
     </row>
-    <row r="609" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="6" t="s">
         <v>5766</v>
       </c>
@@ -54801,7 +54802,7 @@
         <v>3002604827</v>
       </c>
     </row>
-    <row r="610" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="6" t="s">
         <v>5768</v>
       </c>
@@ -54859,7 +54860,7 @@
         <v>5773</v>
       </c>
     </row>
-    <row r="611" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" s="2" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="6" t="s">
         <v>5774</v>
       </c>
@@ -54917,7 +54918,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="612" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" s="2" customFormat="true" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="6" t="s">
         <v>5778</v>
       </c>
@@ -54975,7 +54976,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="613" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="6" t="s">
         <v>5785</v>
       </c>
@@ -55032,8 +55033,9 @@
       <c r="T613" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="614" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U613" s="0"/>
+    </row>
+    <row r="614" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="6" t="s">
         <v>5790</v>
       </c>
@@ -55090,8 +55092,9 @@
       <c r="T614" s="6" t="s">
         <v>2326</v>
       </c>
-    </row>
-    <row r="615" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U614" s="0"/>
+    </row>
+    <row r="615" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="6" t="s">
         <v>5793</v>
       </c>
@@ -55148,8 +55151,9 @@
       <c r="T615" s="9" t="s">
         <v>5796</v>
       </c>
-    </row>
-    <row r="616" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U615" s="0"/>
+    </row>
+    <row r="616" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6" t="s">
         <v>5802</v>
       </c>
@@ -55208,8 +55212,9 @@
       <c r="T616" s="7" t="n">
         <v>3132826509</v>
       </c>
-    </row>
-    <row r="617" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U616" s="0"/>
+    </row>
+    <row r="617" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="6" t="s">
         <v>5814</v>
       </c>
@@ -55266,8 +55271,9 @@
       <c r="T617" s="7" t="s">
         <v>5826</v>
       </c>
-    </row>
-    <row r="618" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U617" s="0"/>
+    </row>
+    <row r="618" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="6" t="s">
         <v>5827</v>
       </c>
@@ -55324,8 +55330,9 @@
       <c r="T618" s="7" t="s">
         <v>5836</v>
       </c>
-    </row>
-    <row r="619" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U618" s="0"/>
+    </row>
+    <row r="619" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="6" t="s">
         <v>5837</v>
       </c>
@@ -55380,8 +55387,9 @@
       <c r="T619" s="6" t="s">
         <v>5838</v>
       </c>
-    </row>
-    <row r="620" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U619" s="0"/>
+    </row>
+    <row r="620" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="6" t="s">
         <v>5843</v>
       </c>
@@ -55438,8 +55446,9 @@
       <c r="T620" s="7" t="s">
         <v>5851</v>
       </c>
-    </row>
-    <row r="621" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U620" s="0"/>
+    </row>
+    <row r="621" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="6" t="s">
         <v>5852</v>
       </c>
@@ -55496,8 +55505,9 @@
       <c r="T621" s="7" t="s">
         <v>5861</v>
       </c>
-    </row>
-    <row r="622" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U621" s="0"/>
+    </row>
+    <row r="622" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="6" t="s">
         <v>5862</v>
       </c>
@@ -55554,8 +55564,9 @@
       <c r="T622" s="7" t="s">
         <v>5871</v>
       </c>
-    </row>
-    <row r="623" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U622" s="0"/>
+    </row>
+    <row r="623" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="6" t="s">
         <v>5872</v>
       </c>
@@ -55612,8 +55623,9 @@
       <c r="T623" s="7" t="n">
         <v>3209421222</v>
       </c>
-    </row>
-    <row r="624" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U623" s="0"/>
+    </row>
+    <row r="624" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="6" t="s">
         <v>5883</v>
       </c>
@@ -55670,8 +55682,9 @@
       <c r="T624" s="7" t="n">
         <v>3124953100</v>
       </c>
-    </row>
-    <row r="625" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U624" s="0"/>
+    </row>
+    <row r="625" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="6" t="s">
         <v>5891</v>
       </c>
@@ -55730,8 +55743,9 @@
       <c r="T625" s="7" t="n">
         <v>3147835251</v>
       </c>
-    </row>
-    <row r="626" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U625" s="0"/>
+    </row>
+    <row r="626" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="6" t="s">
         <v>5897</v>
       </c>
@@ -55788,8 +55802,9 @@
       <c r="T626" s="7" t="n">
         <v>3002604827</v>
       </c>
-    </row>
-    <row r="627" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U626" s="0"/>
+    </row>
+    <row r="627" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="6" t="s">
         <v>5900</v>
       </c>
@@ -55846,8 +55861,9 @@
       <c r="T627" s="9" t="n">
         <v>3138899808</v>
       </c>
-    </row>
-    <row r="628" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U627" s="0"/>
+    </row>
+    <row r="628" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="6" t="s">
         <v>5910</v>
       </c>
@@ -55902,8 +55918,9 @@
       <c r="T628" s="7" t="n">
         <v>3126910387</v>
       </c>
-    </row>
-    <row r="629" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U628" s="0"/>
+    </row>
+    <row r="629" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="6" t="s">
         <v>5915</v>
       </c>
@@ -55960,8 +55977,9 @@
       <c r="T629" s="7" t="n">
         <v>3113274637</v>
       </c>
-    </row>
-    <row r="630" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U629" s="0"/>
+    </row>
+    <row r="630" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="6" t="s">
         <v>5925</v>
       </c>
@@ -56018,8 +56036,9 @@
       <c r="T630" s="7" t="n">
         <v>3202055808</v>
       </c>
-    </row>
-    <row r="631" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U630" s="0"/>
+    </row>
+    <row r="631" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="6" t="s">
         <v>5935</v>
       </c>
@@ -56076,8 +56095,9 @@
       <c r="T631" s="7" t="n">
         <v>3154928005</v>
       </c>
-    </row>
-    <row r="632" s="2" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U631" s="0"/>
+    </row>
+    <row r="632" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="6" t="s">
         <v>5945</v>
       </c>
@@ -56134,8 +56154,9 @@
       <c r="T632" s="6" t="s">
         <v>5955</v>
       </c>
-    </row>
-    <row r="633" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U632" s="0"/>
+    </row>
+    <row r="633" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="6" t="s">
         <v>5956</v>
       </c>
@@ -56192,8 +56213,9 @@
       <c r="T633" s="7" t="n">
         <v>3147401258</v>
       </c>
-    </row>
-    <row r="634" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U633" s="0"/>
+    </row>
+    <row r="634" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6" t="s">
         <v>5967</v>
       </c>
@@ -56250,8 +56272,9 @@
       <c r="T634" s="9" t="n">
         <v>3174422083</v>
       </c>
-    </row>
-    <row r="635" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U634" s="0"/>
+    </row>
+    <row r="635" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="6" t="s">
         <v>5976</v>
       </c>
@@ -56308,8 +56331,9 @@
       <c r="T635" s="7" t="n">
         <v>3142984596</v>
       </c>
-    </row>
-    <row r="636" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U635" s="0"/>
+    </row>
+    <row r="636" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="6" t="s">
         <v>5982</v>
       </c>
@@ -56366,8 +56390,9 @@
       <c r="T636" s="7" t="n">
         <v>2857738</v>
       </c>
-    </row>
-    <row r="637" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U636" s="0"/>
+    </row>
+    <row r="637" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6" t="s">
         <v>5991</v>
       </c>
@@ -56422,8 +56447,9 @@
       <c r="T637" s="7" t="s">
         <v>6000</v>
       </c>
-    </row>
-    <row r="638" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U637" s="0"/>
+    </row>
+    <row r="638" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6" t="s">
         <v>6001</v>
       </c>
@@ -56480,8 +56506,9 @@
       <c r="T638" s="7" t="n">
         <v>3212176905</v>
       </c>
-    </row>
-    <row r="639" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U638" s="0"/>
+    </row>
+    <row r="639" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="6" t="s">
         <v>6010</v>
       </c>
@@ -56538,8 +56565,9 @@
       <c r="T639" s="7" t="n">
         <v>3107719795</v>
       </c>
-    </row>
-    <row r="640" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U639" s="0"/>
+    </row>
+    <row r="640" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="6" t="s">
         <v>6020</v>
       </c>
@@ -56596,8 +56624,9 @@
       <c r="T640" s="6" t="s">
         <v>6027</v>
       </c>
-    </row>
-    <row r="641" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U640" s="0"/>
+    </row>
+    <row r="641" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6" t="s">
         <v>6028</v>
       </c>
@@ -56654,8 +56683,9 @@
       <c r="T641" s="7" t="n">
         <v>3167465960</v>
       </c>
-    </row>
-    <row r="642" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U641" s="0"/>
+    </row>
+    <row r="642" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6" t="s">
         <v>6039</v>
       </c>
@@ -56714,8 +56744,9 @@
       <c r="T642" s="7" t="n">
         <v>3132826509</v>
       </c>
-    </row>
-    <row r="643" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U642" s="0"/>
+    </row>
+    <row r="643" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="6" t="s">
         <v>6042</v>
       </c>
@@ -56772,8 +56803,9 @@
       <c r="T643" s="7" t="n">
         <v>8323009</v>
       </c>
-    </row>
-    <row r="644" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U643" s="0"/>
+    </row>
+    <row r="644" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="6" t="s">
         <v>6048</v>
       </c>
@@ -56832,8 +56864,9 @@
       <c r="T644" s="7" t="n">
         <v>3122629413</v>
       </c>
-    </row>
-    <row r="645" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U644" s="0"/>
+    </row>
+    <row r="645" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="6" t="s">
         <v>6059</v>
       </c>
@@ -56890,8 +56923,9 @@
       <c r="T645" s="7" t="n">
         <v>3102368739</v>
       </c>
-    </row>
-    <row r="646" s="2" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U645" s="0"/>
+    </row>
+    <row r="646" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="6" t="s">
         <v>6063</v>
       </c>
@@ -56948,8 +56982,9 @@
       <c r="T646" s="7" t="n">
         <v>8498265</v>
       </c>
-    </row>
-    <row r="647" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U646" s="0"/>
+    </row>
+    <row r="647" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="6" t="s">
         <v>6072</v>
       </c>
@@ -57008,7 +57043,7 @@
       </c>
       <c r="U647" s="0"/>
     </row>
-    <row r="648" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="6" t="s">
         <v>6074</v>
       </c>
@@ -57067,7 +57102,7 @@
       </c>
       <c r="U648" s="0"/>
     </row>
-    <row r="649" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6" t="s">
         <v>6079</v>
       </c>
@@ -57126,7 +57161,7 @@
       </c>
       <c r="U649" s="0"/>
     </row>
-    <row r="650" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="6" t="s">
         <v>6091</v>
       </c>
@@ -57185,7 +57220,7 @@
       </c>
       <c r="U650" s="0"/>
     </row>
-    <row r="651" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6" t="s">
         <v>6101</v>
       </c>
@@ -57244,7 +57279,7 @@
       </c>
       <c r="U651" s="0"/>
     </row>
-    <row r="652" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="6" t="s">
         <v>6107</v>
       </c>
@@ -57303,7 +57338,7 @@
       </c>
       <c r="U652" s="0"/>
     </row>
-    <row r="653" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6" t="s">
         <v>6118</v>
       </c>
@@ -57362,7 +57397,7 @@
       </c>
       <c r="U653" s="0"/>
     </row>
-    <row r="654" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6" t="s">
         <v>6128</v>
       </c>
@@ -57421,7 +57456,7 @@
       </c>
       <c r="U654" s="0"/>
     </row>
-    <row r="655" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="6" t="s">
         <v>6137</v>
       </c>
@@ -57480,7 +57515,7 @@
       </c>
       <c r="U655" s="0"/>
     </row>
-    <row r="656" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6" t="s">
         <v>6144</v>
       </c>
@@ -57541,7 +57576,7 @@
       </c>
       <c r="U656" s="0"/>
     </row>
-    <row r="657" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="6" t="s">
         <v>6148</v>
       </c>
@@ -57600,7 +57635,7 @@
       </c>
       <c r="U657" s="0"/>
     </row>
-    <row r="658" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6" t="s">
         <v>6156</v>
       </c>
@@ -57659,7 +57694,7 @@
       </c>
       <c r="U658" s="0"/>
     </row>
-    <row r="659" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="6" t="s">
         <v>6161</v>
       </c>
@@ -57718,7 +57753,7 @@
       </c>
       <c r="U659" s="0"/>
     </row>
-    <row r="660" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6" t="s">
         <v>6167</v>
       </c>
@@ -57777,7 +57812,7 @@
       </c>
       <c r="U660" s="0"/>
     </row>
-    <row r="661" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="6" t="s">
         <v>6169</v>
       </c>
@@ -57836,7 +57871,7 @@
       </c>
       <c r="U661" s="0"/>
     </row>
-    <row r="662" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6" t="s">
         <v>6175</v>
       </c>
@@ -57895,7 +57930,7 @@
       </c>
       <c r="U662" s="0"/>
     </row>
-    <row r="663" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="6" t="s">
         <v>6187</v>
       </c>
@@ -57954,7 +57989,7 @@
       </c>
       <c r="U663" s="0"/>
     </row>
-    <row r="664" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="6" t="s">
         <v>6198</v>
       </c>
@@ -58013,7 +58048,7 @@
       </c>
       <c r="U664" s="0"/>
     </row>
-    <row r="665" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="6" t="s">
         <v>6204</v>
       </c>
@@ -58072,7 +58107,7 @@
       </c>
       <c r="U665" s="0"/>
     </row>
-    <row r="666" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="6" t="s">
         <v>6210</v>
       </c>
@@ -58131,7 +58166,7 @@
       </c>
       <c r="U666" s="0"/>
     </row>
-    <row r="667" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="6" t="s">
         <v>6217</v>
       </c>
@@ -58190,7 +58225,7 @@
       </c>
       <c r="U667" s="0"/>
     </row>
-    <row r="668" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="6" t="s">
         <v>6224</v>
       </c>
@@ -58249,7 +58284,7 @@
       </c>
       <c r="U668" s="0"/>
     </row>
-    <row r="669" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="6" t="s">
         <v>6231</v>
       </c>
@@ -58308,7 +58343,7 @@
       </c>
       <c r="U669" s="0"/>
     </row>
-    <row r="670" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="6" t="s">
         <v>6237</v>
       </c>
@@ -58365,7 +58400,7 @@
       </c>
       <c r="U670" s="0"/>
     </row>
-    <row r="671" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="6" t="s">
         <v>6244</v>
       </c>
@@ -58424,7 +58459,7 @@
       </c>
       <c r="U671" s="0"/>
     </row>
-    <row r="672" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="6" t="s">
         <v>6255</v>
       </c>
@@ -58483,7 +58518,7 @@
       </c>
       <c r="U672" s="0"/>
     </row>
-    <row r="673" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="6" t="s">
         <v>6267</v>
       </c>
@@ -58542,7 +58577,7 @@
       </c>
       <c r="U673" s="0"/>
     </row>
-    <row r="674" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="6" t="s">
         <v>6272</v>
       </c>
@@ -58601,7 +58636,7 @@
       </c>
       <c r="U674" s="0"/>
     </row>
-    <row r="675" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="6" t="s">
         <v>6279</v>
       </c>
@@ -58660,7 +58695,7 @@
       </c>
       <c r="U675" s="0"/>
     </row>
-    <row r="676" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="6" t="s">
         <v>6285</v>
       </c>
@@ -58719,7 +58754,7 @@
       </c>
       <c r="U676" s="0"/>
     </row>
-    <row r="677" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="6" t="s">
         <v>6290</v>
       </c>
@@ -58776,7 +58811,7 @@
       </c>
       <c r="U677" s="0"/>
     </row>
-    <row r="678" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="6" t="s">
         <v>6301</v>
       </c>
@@ -58835,7 +58870,7 @@
       </c>
       <c r="U678" s="0"/>
     </row>
-    <row r="679" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="6" t="s">
         <v>6309</v>
       </c>
@@ -58894,7 +58929,7 @@
       </c>
       <c r="U679" s="0"/>
     </row>
-    <row r="680" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="6" t="s">
         <v>6316</v>
       </c>
@@ -58951,7 +58986,7 @@
       </c>
       <c r="U680" s="0"/>
     </row>
-    <row r="681" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6" t="s">
         <v>6320</v>
       </c>
@@ -59010,7 +59045,7 @@
       </c>
       <c r="U681" s="0"/>
     </row>
-    <row r="682" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="6" t="s">
         <v>6331</v>
       </c>
@@ -59071,7 +59106,7 @@
       </c>
       <c r="U682" s="0"/>
     </row>
-    <row r="683" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="6" t="s">
         <v>6343</v>
       </c>
@@ -59130,7 +59165,7 @@
       </c>
       <c r="U683" s="0"/>
     </row>
-    <row r="684" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="6" t="s">
         <v>6349</v>
       </c>
@@ -59189,7 +59224,7 @@
       </c>
       <c r="U684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="6" t="s">
         <v>6361</v>
       </c>
@@ -59248,7 +59283,7 @@
       </c>
       <c r="U685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="6" t="s">
         <v>6373</v>
       </c>
@@ -59307,7 +59342,7 @@
       </c>
       <c r="U686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="6" t="s">
         <v>6376</v>
       </c>
@@ -59366,7 +59401,7 @@
       </c>
       <c r="U687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="6" t="s">
         <v>6387</v>
       </c>
@@ -59423,7 +59458,7 @@
       </c>
       <c r="U688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="6" t="s">
         <v>6394</v>
       </c>
@@ -59480,7 +59515,7 @@
       </c>
       <c r="U689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="6" t="s">
         <v>6400</v>
       </c>
@@ -59537,7 +59572,7 @@
       </c>
       <c r="U690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="6" t="s">
         <v>6406</v>
       </c>
@@ -59596,7 +59631,7 @@
       </c>
       <c r="U691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="6" t="s">
         <v>6415</v>
       </c>
@@ -59655,7 +59690,7 @@
       </c>
       <c r="U692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="6" t="s">
         <v>6428</v>
       </c>
@@ -59714,7 +59749,7 @@
       </c>
       <c r="U693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="6" t="s">
         <v>6435</v>
       </c>
@@ -59773,7 +59808,7 @@
       </c>
       <c r="U694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="6" t="s">
         <v>6445</v>
       </c>
@@ -59832,7 +59867,7 @@
       </c>
       <c r="U695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="6" t="s">
         <v>6453</v>
       </c>
@@ -59891,7 +59926,7 @@
       </c>
       <c r="U696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="6" t="s">
         <v>6461</v>
       </c>
@@ -59950,7 +59985,7 @@
       </c>
       <c r="U697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="6" t="s">
         <v>6467</v>
       </c>
@@ -60009,7 +60044,7 @@
       </c>
       <c r="U698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="6" t="s">
         <v>6471</v>
       </c>
@@ -60066,7 +60101,7 @@
       </c>
       <c r="U699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="6" t="s">
         <v>6478</v>
       </c>
@@ -60125,7 +60160,7 @@
       </c>
       <c r="U700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="6" t="s">
         <v>6485</v>
       </c>
@@ -60186,7 +60221,7 @@
       </c>
       <c r="U701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="6" t="s">
         <v>6498</v>
       </c>
@@ -60245,7 +60280,7 @@
       </c>
       <c r="U702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="6" t="s">
         <v>6504</v>
       </c>
@@ -60304,7 +60339,7 @@
       </c>
       <c r="U703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="6" t="s">
         <v>6512</v>
       </c>
@@ -60363,7 +60398,7 @@
       </c>
       <c r="U704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="6" t="s">
         <v>6518</v>
       </c>
@@ -60422,7 +60457,7 @@
       </c>
       <c r="U705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="6" t="s">
         <v>6529</v>
       </c>
@@ -60481,7 +60516,7 @@
       </c>
       <c r="U706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="6" t="s">
         <v>6537</v>
       </c>
@@ -60540,7 +60575,7 @@
       </c>
       <c r="U707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="60" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="6" t="s">
         <v>6541</v>
       </c>
@@ -60599,7 +60634,7 @@
       </c>
       <c r="U708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="11" t="s">
         <v>6544</v>
       </c>
@@ -60655,7 +60690,13 @@
       <c r="U709" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T683"/>
+  <autoFilter ref="A1:T709">
+    <filterColumn colId="8">
+      <customFilters and="true">
+        <customFilter operator="equal" val="SAN PEDRO DE LOS MILAGROS"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="O36" r:id="rId1" display="esecentrodesaluddetubara@hotmail.com/"/>
     <hyperlink ref="O42" r:id="rId2" display="tatianarenasdiaz@gmail.com"/>
@@ -60763,15 +60804,15 @@
   <dimension ref="C1:E19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="24" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="24" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="24" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="24" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
